--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H2">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>68.87709143691878</v>
+        <v>134.393999818664</v>
       </c>
       <c r="R2">
-        <v>619.8938229322689</v>
+        <v>1209.545998367976</v>
       </c>
       <c r="S2">
-        <v>0.005772711098139562</v>
+        <v>0.01636757610233461</v>
       </c>
       <c r="T2">
-        <v>0.005772711098139563</v>
+        <v>0.01636757610233461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H3">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>55.968733108729</v>
+        <v>333.7952887119479</v>
       </c>
       <c r="R3">
-        <v>503.718597978561</v>
+        <v>3004.157598407532</v>
       </c>
       <c r="S3">
-        <v>0.004690838710305806</v>
+        <v>0.04065225975836183</v>
       </c>
       <c r="T3">
-        <v>0.004690838710305806</v>
+        <v>0.04065225975836183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H4">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>8.340996134675891</v>
+        <v>49.74536778437734</v>
       </c>
       <c r="R4">
-        <v>75.06896521208301</v>
+        <v>447.708310059396</v>
       </c>
       <c r="S4">
-        <v>0.0006990736680610438</v>
+        <v>0.006058388723068177</v>
       </c>
       <c r="T4">
-        <v>0.0006990736680610438</v>
+        <v>0.006058388723068177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>856.5601636731752</v>
+        <v>280.2387755403641</v>
       </c>
       <c r="R5">
-        <v>7709.041473058577</v>
+        <v>2522.148979863277</v>
       </c>
       <c r="S5">
-        <v>0.07178982532369227</v>
+        <v>0.03412971927073324</v>
       </c>
       <c r="T5">
-        <v>0.07178982532369227</v>
+        <v>0.03412971927073324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>696.0309471850981</v>
@@ -818,10 +818,10 @@
         <v>6264.278524665881</v>
       </c>
       <c r="S6">
-        <v>0.05833558719801471</v>
+        <v>0.08476821519564612</v>
       </c>
       <c r="T6">
-        <v>0.05833558719801471</v>
+        <v>0.08476821519564612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>103.7291915971607</v>
@@ -880,10 +880,10 @@
         <v>933.5627243744461</v>
       </c>
       <c r="S7">
-        <v>0.008693727377881304</v>
+        <v>0.01263297051796202</v>
       </c>
       <c r="T7">
-        <v>0.008693727377881303</v>
+        <v>0.01263297051796202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I8">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J8">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>5244.894619102271</v>
+        <v>1715.95984524011</v>
       </c>
       <c r="R8">
-        <v>47204.05157192044</v>
+        <v>15443.63860716099</v>
       </c>
       <c r="S8">
-        <v>0.4395839130924054</v>
+        <v>0.2089833131941457</v>
       </c>
       <c r="T8">
-        <v>0.4395839130924054</v>
+        <v>0.2089833131941457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I9">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J9">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>4261.941104014132</v>
@@ -1004,10 +1004,10 @@
         <v>38357.46993612719</v>
       </c>
       <c r="S9">
-        <v>0.3572008369908045</v>
+        <v>0.5190532721530898</v>
       </c>
       <c r="T9">
-        <v>0.3572008369908045</v>
+        <v>0.5190532721530898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I10">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J10">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>635.1552429414184</v>
@@ -1066,10 +1066,10 @@
         <v>5716.397186472765</v>
       </c>
       <c r="S10">
-        <v>0.05323348654069533</v>
+        <v>0.07735428508465862</v>
       </c>
       <c r="T10">
-        <v>0.05323348654069532</v>
+        <v>0.07735428508465862</v>
       </c>
     </row>
   </sheetData>
